--- a/Unity/Assets/Config/Excel/Datas/ActionEventConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/ActionEventConfig.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="22080" windowHeight="12180"/>
   </bookViews>
   <sheets>
-    <sheet name="Buff" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="#说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>##var</t>
   </si>
@@ -45,7 +45,7 @@
     <t>ActionEventType</t>
   </si>
   <si>
-    <t>TestType</t>
+    <t>IsClientOnly</t>
   </si>
   <si>
     <t>Params</t>
@@ -63,6 +63,9 @@
     <t>EActionEventType</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>(list#sep=,),int</t>
   </si>
   <si>
@@ -81,10 +84,10 @@
     <t>事件类型</t>
   </si>
   <si>
-    <t>测试类型</t>
-  </si>
-  <si>
-    <t>标签</t>
+    <t>客户端独有</t>
+  </si>
+  <si>
+    <t>参数</t>
   </si>
   <si>
     <t>normal bullet</t>
@@ -109,7 +112,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,11 +154,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -309,7 +307,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,136 +637,136 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -790,12 +788,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1150,14 +1142,14 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11.5" style="7" customWidth="1"/>
     <col min="2" max="2" width="9" style="7"/>
-    <col min="3" max="3" width="17.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="7" customWidth="1"/>
     <col min="4" max="4" width="23.5" style="7" customWidth="1"/>
     <col min="5" max="5" width="18.75" style="7" customWidth="1"/>
     <col min="6" max="6" width="13.75" style="7" customWidth="1"/>
@@ -1206,70 +1198,74 @@
         <v>10</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="16.5" spans="1:7">
       <c r="A3" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B4" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="13.5" spans="2:7">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="9">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B5" s="9">
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="13.5" spans="2:7">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="9">
-        <v>2</v>
-      </c>
-      <c r="G5" s="9"/>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/Datas/ActionEventConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/ActionEventConfig.xlsx
@@ -72,7 +72,7 @@
     <t>##</t>
   </si>
   <si>
-    <t>buffID</t>
+    <t>行为事件ID</t>
   </si>
   <si>
     <t>名称</t>
@@ -1142,13 +1142,13 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9" style="7"/>
+    <col min="2" max="2" width="10.875" style="7" customWidth="1"/>
     <col min="3" max="3" width="14.875" style="7" customWidth="1"/>
     <col min="4" max="4" width="23.5" style="7" customWidth="1"/>
     <col min="5" max="5" width="18.75" style="7" customWidth="1"/>
